--- a/12_Unique_Petro_Minerals/2_Interpretation/Data/PSD.xlsx
+++ b/12_Unique_Petro_Minerals/2_Interpretation/Data/PSD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\@Papers\Unique_Petro\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Archive\12_Unique_Petro_Minerals\2_Interpretation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A1DAC-04EC-4960-9DEF-87090C5B7DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96038781-2C35-4512-868E-4FD31B54D7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EA78878-A7E5-4F62-A28C-C5864FB2EA8E}"/>
+    <workbookView xWindow="5475" yWindow="1005" windowWidth="21825" windowHeight="14355" xr2:uid="{8EA78878-A7E5-4F62-A28C-C5864FB2EA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Pore Size Dist</t>
   </si>
@@ -72,6 +70,12 @@
   </si>
   <si>
     <t>meso</t>
+  </si>
+  <si>
+    <t>Cumulative Freq</t>
+  </si>
+  <si>
+    <t>%Pore Vol Sorted</t>
   </si>
 </sst>
 </file>
@@ -438,7 +442,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1394,7 +1397,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10144125" y="268605"/>
+          <a:off x="10848975" y="268605"/>
           <a:ext cx="3343259" cy="3423306"/>
           <a:chOff x="4999483" y="1022251"/>
           <a:chExt cx="3355032" cy="3191048"/>
@@ -1514,7 +1517,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6334125" y="363855"/>
-          <a:ext cx="5155241" cy="3402034"/>
+          <a:ext cx="5860091" cy="3402034"/>
           <a:chOff x="469414" y="1051648"/>
           <a:chExt cx="4769204" cy="3124791"/>
         </a:xfrm>
@@ -2282,7 +2285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2290,16 +2293,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BCCBC8-1383-4905-BA40-919448AA27B6}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,7 +2531,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -2538,7 +2543,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>SUM(B3:B17)</f>
         <v>100.30000000000001</v>
@@ -2548,7 +2553,242 @@
         <v>105.39999999999998</v>
       </c>
     </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="P24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.05</v>
+      </c>
+      <c r="L25">
+        <v>0.1</v>
+      </c>
+      <c r="O25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.375</v>
+      </c>
+      <c r="L26">
+        <v>0.1</v>
+      </c>
+      <c r="O26">
+        <v>2.5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>1.5</v>
+      </c>
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+      <c r="O27">
+        <v>3.75</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0.03</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>7.5</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>2.5</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0.375</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0.75</v>
+      </c>
+      <c r="L30">
+        <v>1.5</v>
+      </c>
+      <c r="O30">
+        <v>0.75</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>1.07</v>
+      </c>
+      <c r="L31">
+        <v>1.5</v>
+      </c>
+      <c r="O31">
+        <v>0.05</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>2.5</v>
+      </c>
+      <c r="O32">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0.3</v>
+      </c>
+      <c r="L33">
+        <v>4.5</v>
+      </c>
+      <c r="O33">
+        <v>0.15</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>0.3</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L35">
+        <v>6.5</v>
+      </c>
+      <c r="O35">
+        <v>1.07</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0.15</v>
+      </c>
+      <c r="L36">
+        <v>6.5</v>
+      </c>
+      <c r="O36">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="O37">
+        <v>1.5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="38" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>7.5</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="O38">
+        <v>0.03</v>
+      </c>
+      <c r="P38" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>3.75</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O24:P39">
+    <sortCondition ref="P24:P39"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
